--- a/biology/Botanique/Asterionellopsidaceae/Asterionellopsidaceae.xlsx
+++ b/biology/Botanique/Asterionellopsidaceae/Asterionellopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asterionellopsidaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Rhaphoneidales.
 Ce sont des organismes planctoniques marins, quelquefois épiphytes.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Asterionellopsis, composé du préfixe Asterionell-, par allusion au genre Asterionella (diatomée de la famille des Tabellariaceae), et du suffixe -opsis, « semblable à ».
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette familles ont des frustules hétéropolaires, c’est-à-dire dont les extrémités sont très différentes, montrant un pôle étroit (pôle inférieur) et un pôle large (pôle supérieur). Le pôle supérieur large, se rétrécit en une extension très étroite chez Asterionellopsis, plus large chez Bleakeleya. Les cellules s'attachent les unes aux autres au pôle large ou au sommet des valves pour former des chaînes plates, étoilées, torsadées, ou encore ondulantes. Elles ont au moins deux petits plastes discoïdes, mais peuvent en avoir un plus grand nombre.
 Les valves présentent des stries alternées avec des aréoles[note 1] poroïdes[note 2] recouvertes d’un velum criblé de trous[note 3] au pôle supérieur.
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,9 +624,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des genres selon AlgaeBase                                           (31 mai 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des genres selon AlgaeBase                                           (31 mai 2022) :
 Asterionellopsis Round, 1990
 Bleakeleya Round, 1990</t>
         </is>
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Asterionellopsidaceae a été créée en 2016 par la phycologue allemande Linda K. Medlin (d) dans une publication coécrite avec le biologiste marin Yves Desdevises (d)[1],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Asterionellopsidaceae a été créée en 2016 par la phycologue allemande Linda K. Medlin (d) dans une publication coécrite avec le biologiste marin Yves Desdevises (d),.
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) L. K. Medlin et Y. Desdevises, « Phylogeny of 'ARAPHID' diatoms inferred from SSU &amp; LSU rDNA, RBCL &amp; PSBA sequences », Vie et Milieu, vol. 66, no 2,‎ janvier 2016, p. 129-154 (ISSN 0240-8759, lire en ligne)</t>
         </is>
